--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2811.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2811.xlsx
@@ -354,7 +354,7 @@
         <v>2.440359414464724</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.365121565395123</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2811.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2811.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17126875113248</v>
+        <v>0.891087532043457</v>
       </c>
       <c r="B1">
-        <v>2.440359414464724</v>
+        <v>1.682713866233826</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.176331996917725</v>
       </c>
       <c r="D1">
-        <v>2.365121565395123</v>
+        <v>3.600562334060669</v>
       </c>
       <c r="E1">
-        <v>1.231773536008688</v>
+        <v>0.4175925254821777</v>
       </c>
     </row>
   </sheetData>
